--- a/Assets/DataTable/XlsFile/SkillTable.xlsx
+++ b/Assets/DataTable/XlsFile/SkillTable.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Desktop/Project/Coly/Funkeln/Assets/DataTable/XlsFile/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBD78BA-21DE-7541-A36D-62B45422BE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SkillIDs" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,26 +24,82 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>SkillID</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Heal</t>
+  </si>
+  <si>
+    <t>Atk</t>
+  </si>
+  <si>
+    <t>Def</t>
+  </si>
+  <si>
+    <t>Eva</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>AttackMelee</t>
+  </si>
+  <si>
+    <t>AttackRange</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF666666"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -45,12 +107,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +480,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="9" width="11.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>9001000</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>100</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>9002000</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>100</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assets/DataTable/XlsFile/SkillTable.xlsx
+++ b/Assets/DataTable/XlsFile/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Desktop/Project/Coly/Funkeln/Assets/DataTable/XlsFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBD78BA-21DE-7541-A36D-62B45422BE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B801556-B528-714C-B2B8-7CF51365913C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>SkillID</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>AttackRange</t>
+  </si>
+  <si>
+    <t>サファイアSP</t>
   </si>
 </sst>
 </file>
@@ -481,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -521,7 +524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>9001000</v>
       </c>
@@ -550,7 +553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>9002000</v>
       </c>
@@ -577,6 +580,35 @@
       </c>
       <c r="I3" s="3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>9102000</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DataTable/XlsFile/SkillTable.xlsx
+++ b/Assets/DataTable/XlsFile/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Desktop/Project/Coly/Funkeln/Assets/DataTable/XlsFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B801556-B528-714C-B2B8-7CF51365913C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E537CAB-E41C-F94F-A09D-EA0764CB4505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>SkillID</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>サファイアSP</t>
+  </si>
+  <si>
+    <t>ルビSP</t>
   </si>
 </sst>
 </file>
@@ -484,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -584,30 +587,59 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
+        <v>9101000</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>9102000</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>200</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Assets/DataTable/XlsFile/SkillTable.xlsx
+++ b/Assets/DataTable/XlsFile/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Desktop/Project/Coly/Funkeln/Assets/DataTable/XlsFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E537CAB-E41C-F94F-A09D-EA0764CB4505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E549E7-D915-0146-9709-A28E2869E9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>SkillID</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>ルビSP</t>
+  </si>
+  <si>
+    <t>BuffTest</t>
+  </si>
+  <si>
+    <t>Sec</t>
   </si>
 </sst>
 </file>
@@ -487,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -498,7 +504,7 @@
     <col min="1" max="9" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,13 +527,16 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>9001000</v>
       </c>
@@ -550,13 +559,16 @@
         <v>0</v>
       </c>
       <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
         <v>1</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>9002000</v>
       </c>
@@ -579,15 +591,18 @@
         <v>0</v>
       </c>
       <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
         <v>2</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>9101000</v>
+        <v>9101100</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -608,15 +623,18 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>9102000</v>
+        <v>9102100</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -637,10 +655,45 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>1</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>9103100</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DataTable/XlsFile/SkillTable.xlsx
+++ b/Assets/DataTable/XlsFile/SkillTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Desktop/Project/Coly/Funkeln/Assets/DataTable/XlsFile/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Desktop/Project/Coly/Assets/DataTable/XlsFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E549E7-D915-0146-9709-A28E2869E9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0200F2B-D73F-1E45-AB36-A8D09139E5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,7 +496,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="I6">
         <v>2</v>
